--- a/Marksheet.xlsx
+++ b/Marksheet.xlsx
@@ -114,7 +114,7 @@
     <t>Sange</t>
   </si>
   <si>
-    <t xml:space="preserve">James </t>
+    <t>James</t>
   </si>
   <si>
     <t>Monde</t>
@@ -183,7 +183,7 @@
     <t>Iviwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Mbengashe </t>
+    <t>Mbengashe</t>
   </si>
   <si>
     <t>Lindokuhle</t>
@@ -303,7 +303,7 @@
     <t>Aneza</t>
   </si>
   <si>
-    <t xml:space="preserve">Soyaya </t>
+    <t>Soyaya</t>
   </si>
   <si>
     <t>Enkosi</t>
@@ -1091,7 +1091,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1566,7 +1566,7 @@
         <v>61</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" ht="14.25">
@@ -2712,7 +2712,7 @@
         <v>59.5</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="14.25">
